--- a/Results/xlsx/RS230015BOS01.xlsx
+++ b/Results/xlsx/RS230015BOS01.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -894,52 +894,804 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t xml:space="preserve">       2471</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.25                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2472</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.25                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2639</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.26                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2640</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.26                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t xml:space="preserve">       2392</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>sa</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">       NULL</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">       NULL</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">         NULL</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">       NULL</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
         <is>
           <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">No PL global price change data for the report date: 2021.02.24                                                                                                                                                                                                  </t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t xml:space="preserve">      2021-02-24</t>
         </is>
       </c>
     </row>
-    <row r="12"/>
-    <row r="13"/>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2724</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.26                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2803</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.27                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2804</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.27                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2560</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.25                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2895</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.27                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3078</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.28                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2974</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.28                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2975</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.28                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3144</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.03.01                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-03-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3145</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.03.01                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-03-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3220</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.03.01                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-03-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3221</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.03.01                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-03-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="28"/>
+    <row r="29"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
